--- a/database/industries/ghaza/ghepino/product/quarterly.xlsx
+++ b/database/industries/ghaza/ghepino/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghepino\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FEE402-9A12-47B6-BA8F-14BBB6CCCCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -159,7 +160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -329,7 +330,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -341,7 +342,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -388,6 +389,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -423,6 +441,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -574,17 +609,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -594,7 +629,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -606,7 +641,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -618,7 +653,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -628,7 +663,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -640,7 +675,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -652,7 +687,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -662,7 +697,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -684,7 +719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -694,7 +729,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -718,7 +753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -742,7 +777,7 @@
         <v>93339</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -766,7 +801,7 @@
         <v>547035</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -790,7 +825,7 @@
         <v>1705096</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
@@ -814,7 +849,7 @@
         <v>1891286</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
@@ -838,7 +873,7 @@
         <v>609667</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
@@ -862,7 +897,7 @@
         <v>511747</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
@@ -886,7 +921,7 @@
         <v>495428</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
@@ -910,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>22</v>
       </c>
@@ -934,7 +969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>23</v>
       </c>
@@ -958,7 +993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>24</v>
       </c>
@@ -982,7 +1017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>25</v>
       </c>
@@ -1004,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
@@ -1028,7 +1063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>28</v>
       </c>
@@ -1052,7 +1087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>29</v>
       </c>
@@ -1076,7 +1111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>30</v>
       </c>
@@ -1100,7 +1135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>31</v>
       </c>
@@ -1122,7 +1157,7 @@
         <v>5853598</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1132,7 +1167,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1142,7 +1177,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1152,7 +1187,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>32</v>
       </c>
@@ -1174,7 +1209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1184,7 +1219,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>10</v>
       </c>
@@ -1208,7 +1243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>33</v>
       </c>
@@ -1232,7 +1267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>13</v>
       </c>
@@ -1256,7 +1291,7 @@
         <v>93339</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>15</v>
       </c>
@@ -1280,7 +1315,7 @@
         <v>547035</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>16</v>
       </c>
@@ -1304,7 +1339,7 @@
         <v>1705096</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>17</v>
       </c>
@@ -1328,7 +1363,7 @@
         <v>1891286</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>18</v>
       </c>
@@ -1352,7 +1387,7 @@
         <v>609667</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>19</v>
       </c>
@@ -1376,7 +1411,7 @@
         <v>511747</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>20</v>
       </c>
@@ -1400,7 +1435,7 @@
         <v>495428</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>21</v>
       </c>
@@ -1424,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>22</v>
       </c>
@@ -1448,7 +1483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>23</v>
       </c>
@@ -1472,7 +1507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>24</v>
       </c>
@@ -1496,7 +1531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>25</v>
       </c>
@@ -1518,7 +1553,7 @@
         <v>-15120</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>26</v>
       </c>
@@ -1542,7 +1577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>28</v>
       </c>
@@ -1566,7 +1601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>29</v>
       </c>
@@ -1590,7 +1625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>30</v>
       </c>
@@ -1614,7 +1649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>34</v>
       </c>
@@ -1638,7 +1673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>31</v>
       </c>
@@ -1660,7 +1695,7 @@
         <v>5838478</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1670,7 +1705,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1680,7 +1715,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1690,7 +1725,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>36</v>
       </c>
@@ -1712,7 +1747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1722,7 +1757,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>10</v>
       </c>
@@ -1746,7 +1781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>33</v>
       </c>
@@ -1770,7 +1805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>13</v>
       </c>
@@ -1794,7 +1829,7 @@
         <v>437521</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>15</v>
       </c>
@@ -1818,7 +1853,7 @@
         <v>529661</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>16</v>
       </c>
@@ -1842,7 +1877,7 @@
         <v>1063426</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>17</v>
       </c>
@@ -1866,7 +1901,7 @@
         <v>1858844</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>18</v>
       </c>
@@ -1890,7 +1925,7 @@
         <v>1096937</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>19</v>
       </c>
@@ -1914,7 +1949,7 @@
         <v>544649</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>20</v>
       </c>
@@ -1938,7 +1973,7 @@
         <v>489107</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>21</v>
       </c>
@@ -1962,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>22</v>
       </c>
@@ -1986,7 +2021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>23</v>
       </c>
@@ -2010,7 +2045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>24</v>
       </c>
@@ -2034,7 +2069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>25</v>
       </c>
@@ -2058,7 +2093,7 @@
         <v>-176208</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>26</v>
       </c>
@@ -2082,7 +2117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>28</v>
       </c>
@@ -2106,7 +2141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>29</v>
       </c>
@@ -2130,7 +2165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>30</v>
       </c>
@@ -2154,7 +2189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>34</v>
       </c>
@@ -2178,7 +2213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>31</v>
       </c>
@@ -2200,7 +2235,7 @@
         <v>5843937</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2210,7 +2245,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2220,7 +2255,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2230,7 +2265,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>38</v>
       </c>
@@ -2252,7 +2287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2262,7 +2297,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>10</v>
       </c>
@@ -2286,7 +2321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>33</v>
       </c>
@@ -2310,7 +2345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>13</v>
       </c>
@@ -2334,7 +2369,7 @@
         <v>4687440</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>15</v>
       </c>
@@ -2358,7 +2393,7 @@
         <v>968240</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>16</v>
       </c>
@@ -2382,7 +2417,7 @@
         <v>623675</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>17</v>
       </c>
@@ -2406,7 +2441,7 @@
         <v>982847</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>18</v>
       </c>
@@ -2430,7 +2465,7 @@
         <v>1799240</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>19</v>
       </c>
@@ -2454,7 +2489,7 @@
         <v>1064293</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>20</v>
       </c>
@@ -2478,7 +2513,7 @@
         <v>987241</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>21</v>
       </c>
@@ -2502,7 +2537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>22</v>
       </c>
@@ -2526,7 +2561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>23</v>
       </c>
@@ -2550,7 +2585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>24</v>
       </c>
@@ -2574,7 +2609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>25</v>
       </c>
@@ -2598,7 +2633,7 @@
         <v>11653968</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>26</v>
       </c>
@@ -2622,7 +2657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>28</v>
       </c>
@@ -2646,7 +2681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>29</v>
       </c>
@@ -2670,7 +2705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>30</v>
       </c>
@@ -2694,7 +2729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>34</v>
       </c>
@@ -2718,7 +2753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2728,7 +2763,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2738,7 +2773,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2748,7 +2783,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>43</v>
       </c>
@@ -2770,7 +2805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2780,7 +2815,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>10</v>
       </c>
@@ -2804,7 +2839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>33</v>
       </c>
@@ -2828,7 +2863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>13</v>
       </c>
@@ -2852,7 +2887,7 @@
         <v>-102193</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>15</v>
       </c>
@@ -2876,7 +2911,7 @@
         <v>-276677</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>16</v>
       </c>
@@ -2900,7 +2935,7 @@
         <v>-602134</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>17</v>
       </c>
@@ -2924,7 +2959,7 @@
         <v>-910956</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>18</v>
       </c>
@@ -2948,7 +2983,7 @@
         <v>-653197</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>19</v>
       </c>
@@ -2972,7 +3007,7 @@
         <v>-235184</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>20</v>
       </c>
@@ -2996,7 +3031,7 @@
         <v>-320048</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>21</v>
       </c>
@@ -3020,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>25</v>
       </c>
@@ -3044,7 +3079,7 @@
         <v>8630</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>34</v>
       </c>
@@ -3068,7 +3103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
         <v>31</v>
       </c>
@@ -3090,7 +3125,7 @@
         <v>-3091759</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3100,7 +3135,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3110,7 +3145,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3120,7 +3155,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>44</v>
       </c>
@@ -3142,7 +3177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3152,7 +3187,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>10</v>
       </c>
@@ -3176,7 +3211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>33</v>
       </c>
@@ -3200,7 +3235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>13</v>
       </c>
@@ -3224,7 +3259,7 @@
         <v>335328</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>15</v>
       </c>
@@ -3248,7 +3283,7 @@
         <v>252984</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>16</v>
       </c>
@@ -3272,7 +3307,7 @@
         <v>461292</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>17</v>
       </c>
@@ -3296,7 +3331,7 @@
         <v>947888</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>18</v>
       </c>
@@ -3320,7 +3355,7 @@
         <v>443740</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>19</v>
       </c>
@@ -3344,7 +3379,7 @@
         <v>309465</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>20</v>
       </c>
@@ -3368,7 +3403,7 @@
         <v>169059</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>21</v>
       </c>
@@ -3392,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>25</v>
       </c>
@@ -3416,7 +3451,7 @@
         <v>-176208</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>34</v>
       </c>
@@ -3440,7 +3475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="14" t="s">
         <v>31</v>
       </c>
